--- a/biology/Histoire de la zoologie et de la botanique/Justin-Benjamin_Chabaud/Justin-Benjamin_Chabaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Justin-Benjamin_Chabaud/Justin-Benjamin_Chabaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justin-Benjamin[1] (ou Justin-Baptistin[2]) Chabaud, né à Toulon le 9 avril 1833[3] et mort en 1915, est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justin-Benjamin (ou Justin-Baptistin) Chabaud, né à Toulon le 9 avril 1833 et mort en 1915, est un botaniste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botaniste de la Marine[4], fondateur (1868) et vice-président de la Société d'agriculture, d'horticulture et d'acclimatation de Toulon, il fut directeur du jardin botanique de Saint-Mandrier[5] et officia comme chargé des cours de botanique pratique à l'École de médecine navale.
-Il décrit et donne le nom définitif au Yucca filifera en 1876[6] à partir de la floraison du spécimen du plantier de Costebelle, à Hyères. Il décrit également le Phoenix canariensis en 1882[7]. Il est l'un des principaux animateurs de l'acclimatation sur la Côte d'Azur au XIXe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botaniste de la Marine, fondateur (1868) et vice-président de la Société d'agriculture, d'horticulture et d'acclimatation de Toulon, il fut directeur du jardin botanique de Saint-Mandrier et officia comme chargé des cours de botanique pratique à l'École de médecine navale.
+Il décrit et donne le nom définitif au Yucca filifera en 1876 à partir de la floraison du spécimen du plantier de Costebelle, à Hyères. Il décrit également le Phoenix canariensis en 1882. Il est l'un des principaux animateurs de l'acclimatation sur la Côte d'Azur au XIXe siècle.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Hiver de 1870-71 au Jardin botanique à Saint-Mandrier, Toulon, 1871
 Végétaux exotiques cultivés en plein air dans la région des orangers (France), Toulon, 1871
